--- a/results/csv/resultados_accd_001.xlsx
+++ b/results/csv/resultados_accd_001.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4642eff22e1537c/Área de Trabalho/github/metalearning_for_ranking_algorithm/results/csv/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_DA47EAA4616F2DF99846CF14616465F3ED0D816A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{074E07D3-8A4A-4D15-83EC-1C27FA42EFC2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abalone" sheetId="1" r:id="rId1"/>
-    <sheet name="adult" sheetId="2" r:id="rId2"/>
-    <sheet name="banknote" sheetId="3" r:id="rId3"/>
+    <sheet name="banknote" sheetId="3" r:id="rId2"/>
+    <sheet name="adult" sheetId="2" r:id="rId3"/>
     <sheet name="car" sheetId="4" r:id="rId4"/>
     <sheet name="chess1" sheetId="5" r:id="rId5"/>
     <sheet name="chess2" sheetId="6" r:id="rId6"/>
     <sheet name="contraceptive" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -202,8 +208,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,11 +272,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -312,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,9 +358,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,6 +410,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,14 +603,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -585,7 +637,7 @@
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -599,7 +651,7 @@
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -613,7 +665,7 @@
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -627,7 +679,7 @@
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -641,7 +693,7 @@
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -655,7 +707,7 @@
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -675,14 +727,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -701,13 +753,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -715,13 +767,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -729,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -743,13 +795,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -757,13 +809,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -771,13 +823,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -785,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -797,14 +849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -823,13 +875,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -837,13 +889,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -851,13 +903,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -865,13 +917,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -879,13 +931,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -893,13 +945,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -907,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -919,14 +971,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -951,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -965,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -979,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -993,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1007,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1021,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1041,14 +1093,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1073,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1087,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1101,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1115,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1129,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1143,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1163,14 +1215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1195,7 +1247,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1209,7 +1261,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1223,7 +1275,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1237,7 +1289,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1251,7 +1303,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1265,7 +1317,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1285,14 +1337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1317,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1331,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1345,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1359,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1373,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1387,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>

--- a/results/csv/resultados_accd_001.xlsx
+++ b/results/csv/resultados_accd_001.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4642eff22e1537c/Área de Trabalho/github/metalearning_for_ranking_algorithm/results/csv/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DA47EAA4616F2DF99846CF14616465F3ED0D816A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{074E07D3-8A4A-4D15-83EC-1C27FA42EFC2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="abalone" sheetId="1" r:id="rId1"/>
-    <sheet name="banknote" sheetId="3" r:id="rId2"/>
-    <sheet name="adult" sheetId="2" r:id="rId3"/>
+    <sheet name="adult" sheetId="2" r:id="rId2"/>
+    <sheet name="banknote" sheetId="3" r:id="rId3"/>
     <sheet name="car" sheetId="4" r:id="rId4"/>
     <sheet name="chess1" sheetId="5" r:id="rId5"/>
     <sheet name="chess2" sheetId="6" r:id="rId6"/>
     <sheet name="contraceptive" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -37,179 +31,179 @@
     <t>sperman_coef</t>
   </si>
   <si>
-    <t>('DecisionTree', (1.9250639699813408, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (1.9014058838491863, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('Knn10', (1.8626439017796554, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('Knn5', (1.6324345769088373, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('LDA', (1.2358250851539592, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('Knn1', (1.0490065426598993, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.15149295524403716, 0.5294468484269127))</t>
-  </si>
-  <si>
-    <t>('DecisionTree', (1.2235065393661002, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (1.136392737227799, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('Knn10', (1.100845008559267, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('Knn5', (1.0696525710991462, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.9251552170080345, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('LDA', (0.8975846239669706, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.6484064900762577, 0.5294468484269127))</t>
-  </si>
-  <si>
-    <t>('DecisionTree', (1.2210313618781592, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (1.1672860444431152, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('Knn10', (1.1585315592023169, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('Knn5', (1.1111162014045453, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('LDA', (0.9509541944079383, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.9446512976019238, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.5677406907743825, 0.5294468484269127))</t>
-  </si>
-  <si>
-    <t>('DecisionTree', (1.2214781328486708, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (1.1759689275409853, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('Knn10', (1.150517242300083, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('Knn5', (1.0991603464234319, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('LDA', (0.9577340884399457, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.9242608742084589, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.5909588767949272, 0.5294468484269127))</t>
-  </si>
-  <si>
-    <t>('DecisionTree', (1.2059283061110737, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (1.1626185547095749, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('Knn10', (1.148028361166917, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('Knn5', (1.1073648965187226, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('LDA', (0.9559903558766353, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.9531465756558776, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.5817291567503048, 0.5294468484269127))</t>
-  </si>
-  <si>
-    <t>('DecisionTree', (1.2023418117536682, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (1.1588023539505379, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('Knn10', (1.145962874847998, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('Knn5', (1.093208896200624, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('LDA', (0.9498841316766019, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.9311233450379721, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.6174295867973981, 0.5294468484269127))</t>
-  </si>
-  <si>
-    <t>('LDA', (0.9530191341672134, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('Knn10', (0.949235945782342, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (0.9401250647739084, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('DecisionTree', (0.9118935115552722, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('Knn5', (0.9071462827714711, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.8183729977427875, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.6928709714013842, 0.5294468484269127))</t>
-  </si>
-  <si>
-    <t>('DecisionTree', (1.2239504336285347, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (1.1715601545204724, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('Knn10', (1.1431228207570527, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('Knn5', (1.1006201132941111, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('LDA', (0.9544413666171209, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.9418707022734711, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.580427216103696, 0.5294468484269127))</t>
+    <t>('RandomForest', (1.943883637109084, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (1.8943610758295615, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('Knn10', (1.8574779953840572, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('Knn5', (1.627002503200843, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('LDA', (1.2346650988215357, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('Knn1', (1.043688086604625, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.15193369738871185, 0.5294468484269127))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (1.218282852878653, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (1.1417826726142501, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('Knn10', (1.100612847965833, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('Knn5', (1.0690737317500472, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.9244708023156172, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('LDA', (0.8976108443008011, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.6516441078758748, 0.5294468484269127))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (1.2153062130576848, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (1.1762890629922917, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('Knn10', (1.1578848228716037, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('Knn5', (1.1105456185937956, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('LDA', (0.9510369105221217, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.9437330121259669, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.5700465884998703, 0.5294468484269127))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (1.2165611038275537, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (1.184485697220083, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('Knn10', (1.1495017200273345, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('Knn5', (1.0984586763233672, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('LDA', (0.9575927230287137, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.9233548003802989, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.5938533159937266, 0.5294468484269127))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (1.2005854966275105, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (1.1718831383451924, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('Knn10', (1.1474075770264902, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('Knn5', (1.1069101122468135, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('LDA', (0.956572630666682, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.952378494200724, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.5826835041504131, 0.5294468484269127))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (1.197438686628176, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (1.1670587976313365, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('Knn10', (1.1450445564856935, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('Knn5', (1.0923944270931571, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('LDA', (0.9500716238639448, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.930028209533959, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.6203521097779384, 0.5294468484269127))</t>
+  </si>
+  <si>
+    <t>('LDA', (0.9534491192131563, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('Knn10', (0.9484835514807354, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (0.9472260384407809, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (0.907712381301066, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('Knn5', (0.9064293065606661, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.8170151962849667, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.6957836099734294, 0.5294468484269127))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (1.225143363278281, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (1.1751326111481144, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('Knn10', (1.1418545341630615, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('Knn5', (1.0989085804297576, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('LDA', (0.9542131316349177, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.940424236915059, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.5827243624601205, 0.5294468484269127))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,19 +266,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -326,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,27 +344,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,24 +378,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -603,16 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -634,10 +582,10 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.9642857142857143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -648,10 +596,10 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0.9642857142857143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -662,10 +610,10 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0.9642857142857143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -676,10 +624,10 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>0.9642857142857143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -690,10 +638,10 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>0.9642857142857143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -704,10 +652,10 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>0.9642857142857143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -718,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>0.9642857142857143</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
   </sheetData>
@@ -727,14 +675,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -753,13 +701,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -767,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -781,13 +729,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -795,13 +743,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -809,13 +757,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -823,13 +771,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -837,10 +785,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -849,14 +797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,7 +815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -875,13 +823,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -889,13 +837,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -903,13 +851,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -917,13 +865,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -931,13 +879,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -945,13 +893,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -959,10 +907,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -971,14 +919,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1000,10 +948,10 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1014,10 +962,10 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1028,10 +976,10 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1042,10 +990,10 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1056,10 +1004,10 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1070,10 +1018,10 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1084,7 +1032,7 @@
         <v>37</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -1093,14 +1041,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1122,10 +1070,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1136,10 +1084,10 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1150,10 +1098,10 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1164,10 +1112,10 @@
         <v>41</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1178,10 +1126,10 @@
         <v>42</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1192,10 +1140,10 @@
         <v>43</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1206,7 +1154,7 @@
         <v>44</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -1215,14 +1163,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1244,10 +1192,10 @@
         <v>45</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1258,10 +1206,10 @@
         <v>46</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1272,10 +1220,10 @@
         <v>47</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1286,10 +1234,10 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1300,10 +1248,10 @@
         <v>49</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1314,10 +1262,10 @@
         <v>50</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1328,7 +1276,7 @@
         <v>51</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
   </sheetData>
@@ -1337,14 +1285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1366,10 +1314,10 @@
         <v>52</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1380,10 +1328,10 @@
         <v>53</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1394,10 +1342,10 @@
         <v>54</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1408,10 +1356,10 @@
         <v>55</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1422,10 +1370,10 @@
         <v>56</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1436,10 +1384,10 @@
         <v>57</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1450,7 +1398,7 @@
         <v>58</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
   </sheetData>
